--- a/data/Swissborg_account_statement_20201218_20210407.xlsx
+++ b/data/Swissborg_account_statement_20201218_20210407.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C6FCD32-E03E-184D-9039-456983C86195}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Python\SByield\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18437" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -1093,12 +1097,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="167" formatCode="#0.##"/>
-    <numFmt numFmtId="168" formatCode="#0.#######"/>
-    <numFmt numFmtId="169" formatCode="#0.###"/>
-    <numFmt numFmtId="170" formatCode="#0.########"/>
+    <numFmt numFmtId="164" formatCode="#0.##"/>
+    <numFmt numFmtId="165" formatCode="#0.#######"/>
+    <numFmt numFmtId="166" formatCode="#0.###"/>
+    <numFmt numFmtId="167" formatCode="#0.########"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1225,16 +1229,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1553,7 +1557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1561,14 +1565,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.828125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="29.0546875" customWidth="1"/>
-    <col min="3" max="10" width="14.9296875" customWidth="1"/>
-    <col min="11" max="11" width="69.94921875" customWidth="1"/>
+    <col min="1" max="2" width="29.07421875" customWidth="1"/>
+    <col min="3" max="10" width="14.921875" customWidth="1"/>
+    <col min="11" max="11" width="69.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1600,7 +1604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1608,7 +1612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1623,7 +1627,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="26.15" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1658,7 +1662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
@@ -1693,7 +1697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
@@ -1728,7 +1732,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
@@ -1763,7 +1767,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>34</v>
       </c>
@@ -1798,7 +1802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1903,7 +1907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1938,7 +1942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
@@ -2008,7 +2012,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
@@ -2043,7 +2047,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -2078,7 +2082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
@@ -2148,7 +2152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>59</v>
       </c>
@@ -2183,7 +2187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>61</v>
       </c>
@@ -2218,7 +2222,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="4" t="s">
         <v>61</v>
       </c>
@@ -2253,7 +2257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
@@ -2288,7 +2292,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>66</v>
       </c>
@@ -2323,7 +2327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>70</v>
       </c>
@@ -2358,7 +2362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="4" t="s">
         <v>72</v>
       </c>
@@ -2393,7 +2397,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>72</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>76</v>
       </c>
@@ -2463,7 +2467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="4" t="s">
         <v>78</v>
       </c>
@@ -2498,7 +2502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="4" t="s">
         <v>80</v>
       </c>
@@ -2533,7 +2537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="4" t="s">
         <v>82</v>
       </c>
@@ -2568,7 +2572,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="4" t="s">
         <v>82</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>88</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>88</v>
       </c>
@@ -2708,7 +2712,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>92</v>
       </c>
@@ -2743,7 +2747,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>94</v>
       </c>
@@ -2778,7 +2782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>96</v>
       </c>
@@ -2813,7 +2817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>98</v>
       </c>
@@ -2848,7 +2852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>98</v>
       </c>
@@ -2883,7 +2887,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>102</v>
       </c>
@@ -2918,7 +2922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
         <v>104</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
         <v>106</v>
       </c>
@@ -2988,7 +2992,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>108</v>
       </c>
@@ -3023,7 +3027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>110</v>
       </c>
@@ -3058,7 +3062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>113</v>
       </c>
@@ -3093,7 +3097,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>115</v>
       </c>
@@ -3128,7 +3132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>117</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
         <v>119</v>
       </c>
@@ -3198,7 +3202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>121</v>
       </c>
@@ -3233,7 +3237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>123</v>
       </c>
@@ -3268,7 +3272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>125</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>127</v>
       </c>
@@ -3338,7 +3342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
         <v>129</v>
       </c>
@@ -3373,7 +3377,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>131</v>
       </c>
@@ -3408,7 +3412,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>133</v>
       </c>
@@ -3443,7 +3447,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>135</v>
       </c>
@@ -3478,7 +3482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
         <v>137</v>
       </c>
@@ -3513,7 +3517,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="4" t="s">
         <v>139</v>
       </c>
@@ -3548,7 +3552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="4" t="s">
         <v>141</v>
       </c>
@@ -3583,7 +3587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="4" t="s">
         <v>143</v>
       </c>
@@ -3618,7 +3622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="4" t="s">
         <v>145</v>
       </c>
@@ -3653,7 +3657,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="4" t="s">
         <v>147</v>
       </c>
@@ -3688,7 +3692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="4" t="s">
         <v>149</v>
       </c>
@@ -3723,7 +3727,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="4" t="s">
         <v>151</v>
       </c>
@@ -3758,7 +3762,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="4" t="s">
         <v>153</v>
       </c>
@@ -3793,7 +3797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="4" t="s">
         <v>155</v>
       </c>
@@ -3828,7 +3832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="4" t="s">
         <v>157</v>
       </c>
@@ -3863,7 +3867,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="4" t="s">
         <v>159</v>
       </c>
@@ -3898,7 +3902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="4" t="s">
         <v>161</v>
       </c>
@@ -3933,7 +3937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="4" t="s">
         <v>163</v>
       </c>
@@ -3968,7 +3972,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="4" t="s">
         <v>165</v>
       </c>
@@ -4003,7 +4007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="4" t="s">
         <v>167</v>
       </c>
@@ -4038,7 +4042,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="4" t="s">
         <v>169</v>
       </c>
@@ -4073,7 +4077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="4" t="s">
         <v>171</v>
       </c>
@@ -4108,7 +4112,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="4" t="s">
         <v>173</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="4" t="s">
         <v>175</v>
       </c>
@@ -4178,7 +4182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="4" t="s">
         <v>175</v>
       </c>
@@ -4213,7 +4217,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" s="4" t="s">
         <v>177</v>
       </c>
@@ -4248,7 +4252,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" s="4" t="s">
         <v>177</v>
       </c>
@@ -4283,7 +4287,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" s="4" t="s">
         <v>179</v>
       </c>
@@ -4318,7 +4322,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" s="4" t="s">
         <v>179</v>
       </c>
@@ -4353,7 +4357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="4" t="s">
         <v>181</v>
       </c>
@@ -4388,7 +4392,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="4" t="s">
         <v>181</v>
       </c>
@@ -4423,7 +4427,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="4" t="s">
         <v>183</v>
       </c>
@@ -4458,7 +4462,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" s="4" t="s">
         <v>183</v>
       </c>
@@ -4493,7 +4497,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" s="4" t="s">
         <v>185</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="4" t="s">
         <v>188</v>
       </c>
@@ -4563,7 +4567,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" s="4" t="s">
         <v>188</v>
       </c>
@@ -4598,7 +4602,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" s="4" t="s">
         <v>192</v>
       </c>
@@ -4633,7 +4637,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" s="4" t="s">
         <v>192</v>
       </c>
@@ -4668,7 +4672,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" s="4" t="s">
         <v>194</v>
       </c>
@@ -4703,7 +4707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" s="4" t="s">
         <v>194</v>
       </c>
@@ -4738,7 +4742,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" s="4" t="s">
         <v>196</v>
       </c>
@@ -4773,7 +4777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" s="4" t="s">
         <v>196</v>
       </c>
@@ -4808,7 +4812,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" s="4" t="s">
         <v>198</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" s="4" t="s">
         <v>198</v>
       </c>
@@ -4878,7 +4882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" s="4" t="s">
         <v>200</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" s="4" t="s">
         <v>200</v>
       </c>
@@ -4948,7 +4952,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" s="4" t="s">
         <v>202</v>
       </c>
@@ -4983,7 +4987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" s="4" t="s">
         <v>204</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" s="4" t="s">
         <v>204</v>
       </c>
@@ -5053,7 +5057,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" s="4" t="s">
         <v>207</v>
       </c>
@@ -5088,7 +5092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" s="4" t="s">
         <v>207</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" s="4" t="s">
         <v>209</v>
       </c>
@@ -5158,7 +5162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" s="4" t="s">
         <v>209</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" s="4" t="s">
         <v>211</v>
       </c>
@@ -5228,7 +5232,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" s="4" t="s">
         <v>211</v>
       </c>
@@ -5263,7 +5267,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="4" t="s">
         <v>215</v>
       </c>
@@ -5298,7 +5302,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" s="4" t="s">
         <v>215</v>
       </c>
@@ -5333,7 +5337,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" s="4" t="s">
         <v>219</v>
       </c>
@@ -5368,7 +5372,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" s="4" t="s">
         <v>219</v>
       </c>
@@ -5403,7 +5407,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" s="4" t="s">
         <v>221</v>
       </c>
@@ -5438,7 +5442,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" s="4" t="s">
         <v>221</v>
       </c>
@@ -5473,7 +5477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" s="4" t="s">
         <v>223</v>
       </c>
@@ -5508,7 +5512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" s="4" t="s">
         <v>223</v>
       </c>
@@ -5543,7 +5547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" s="4" t="s">
         <v>225</v>
       </c>
@@ -5578,7 +5582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="4" t="s">
         <v>225</v>
       </c>
@@ -5613,7 +5617,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" s="4" t="s">
         <v>227</v>
       </c>
@@ -5648,7 +5652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" s="4" t="s">
         <v>227</v>
       </c>
@@ -5683,7 +5687,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" s="4" t="s">
         <v>229</v>
       </c>
@@ -5718,7 +5722,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" s="4" t="s">
         <v>229</v>
       </c>
@@ -5753,7 +5757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" s="4" t="s">
         <v>231</v>
       </c>
@@ -5788,7 +5792,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" s="4" t="s">
         <v>231</v>
       </c>
@@ -5823,7 +5827,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" s="4" t="s">
         <v>233</v>
       </c>
@@ -5858,7 +5862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" s="4" t="s">
         <v>235</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" s="4" t="s">
         <v>235</v>
       </c>
@@ -5928,7 +5932,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" s="4" t="s">
         <v>239</v>
       </c>
@@ -5963,7 +5967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" s="4" t="s">
         <v>241</v>
       </c>
@@ -5998,7 +6002,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" s="4" t="s">
         <v>241</v>
       </c>
@@ -6033,7 +6037,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" s="4" t="s">
         <v>243</v>
       </c>
@@ -6068,7 +6072,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" s="4" t="s">
         <v>243</v>
       </c>
@@ -6103,7 +6107,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" s="4" t="s">
         <v>247</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" s="4" t="s">
         <v>247</v>
       </c>
@@ -6173,7 +6177,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" s="4" t="s">
         <v>249</v>
       </c>
@@ -6208,7 +6212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" s="4" t="s">
         <v>249</v>
       </c>
@@ -6243,7 +6247,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" s="4" t="s">
         <v>251</v>
       </c>
@@ -6278,7 +6282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" s="4" t="s">
         <v>251</v>
       </c>
@@ -6313,7 +6317,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" s="4" t="s">
         <v>253</v>
       </c>
@@ -6348,7 +6352,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" s="4" t="s">
         <v>253</v>
       </c>
@@ -6383,7 +6387,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" s="4" t="s">
         <v>255</v>
       </c>
@@ -6418,7 +6422,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" s="4" t="s">
         <v>255</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" s="4" t="s">
         <v>257</v>
       </c>
@@ -6488,7 +6492,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" s="4" t="s">
         <v>257</v>
       </c>
@@ -6523,7 +6527,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" s="4" t="s">
         <v>259</v>
       </c>
@@ -6558,7 +6562,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" s="4" t="s">
         <v>259</v>
       </c>
@@ -6593,7 +6597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A151" s="4" t="s">
         <v>261</v>
       </c>
@@ -6628,7 +6632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A152" s="4" t="s">
         <v>261</v>
       </c>
@@ -6663,7 +6667,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A153" s="4" t="s">
         <v>263</v>
       </c>
@@ -6698,7 +6702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A154" s="4" t="s">
         <v>263</v>
       </c>
@@ -6733,7 +6737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A155" s="4" t="s">
         <v>265</v>
       </c>
@@ -6768,7 +6772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A156" s="4" t="s">
         <v>265</v>
       </c>
@@ -6803,7 +6807,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A157" s="4" t="s">
         <v>267</v>
       </c>
@@ -6838,7 +6842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A158" s="4" t="s">
         <v>267</v>
       </c>
@@ -6873,7 +6877,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A159" s="4" t="s">
         <v>269</v>
       </c>
@@ -6908,7 +6912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A160" s="4" t="s">
         <v>269</v>
       </c>
@@ -6943,7 +6947,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A161" s="4" t="s">
         <v>271</v>
       </c>
@@ -6978,7 +6982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A162" s="4" t="s">
         <v>271</v>
       </c>
@@ -7013,7 +7017,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A163" s="4" t="s">
         <v>273</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A164" s="4" t="s">
         <v>273</v>
       </c>
@@ -7083,7 +7087,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A165" s="4" t="s">
         <v>275</v>
       </c>
@@ -7118,7 +7122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A166" s="4" t="s">
         <v>275</v>
       </c>
@@ -7153,7 +7157,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A167" s="4" t="s">
         <v>277</v>
       </c>
@@ -7188,7 +7192,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A168" s="4" t="s">
         <v>277</v>
       </c>
@@ -7223,7 +7227,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A169" s="4" t="s">
         <v>281</v>
       </c>
@@ -7258,7 +7262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A170" s="4" t="s">
         <v>281</v>
       </c>
@@ -7293,7 +7297,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A171" s="4" t="s">
         <v>283</v>
       </c>
@@ -7328,7 +7332,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A172" s="4" t="s">
         <v>283</v>
       </c>
@@ -7363,7 +7367,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A173" s="4" t="s">
         <v>287</v>
       </c>
@@ -7398,7 +7402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A174" s="4" t="s">
         <v>287</v>
       </c>
@@ -7433,7 +7437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A175" s="4" t="s">
         <v>289</v>
       </c>
@@ -7468,7 +7472,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A176" s="4" t="s">
         <v>289</v>
       </c>
@@ -7503,7 +7507,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A177" s="4" t="s">
         <v>291</v>
       </c>
@@ -7538,7 +7542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A178" s="4" t="s">
         <v>291</v>
       </c>
@@ -7573,7 +7577,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A179" s="4" t="s">
         <v>293</v>
       </c>
@@ -7608,7 +7612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A180" s="4" t="s">
         <v>295</v>
       </c>
@@ -7643,7 +7647,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A181" s="4" t="s">
         <v>295</v>
       </c>
@@ -7678,7 +7682,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A182" s="4" t="s">
         <v>298</v>
       </c>
@@ -7713,7 +7717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A183" s="4" t="s">
         <v>298</v>
       </c>
@@ -7748,7 +7752,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A184" s="4" t="s">
         <v>300</v>
       </c>
@@ -7783,7 +7787,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A185" s="4" t="s">
         <v>300</v>
       </c>
@@ -7818,7 +7822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A186" s="4" t="s">
         <v>302</v>
       </c>
@@ -7853,7 +7857,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A187" s="4" t="s">
         <v>302</v>
       </c>
@@ -7888,7 +7892,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A188" s="4" t="s">
         <v>304</v>
       </c>
@@ -7923,7 +7927,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A189" s="4" t="s">
         <v>304</v>
       </c>
@@ -7958,7 +7962,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A190" s="4" t="s">
         <v>306</v>
       </c>
@@ -7993,7 +7997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A191" s="4" t="s">
         <v>306</v>
       </c>
@@ -8028,7 +8032,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A192" s="4" t="s">
         <v>308</v>
       </c>
@@ -8063,7 +8067,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A193" s="4" t="s">
         <v>308</v>
       </c>
@@ -8098,7 +8102,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A194" s="4" t="s">
         <v>310</v>
       </c>
@@ -8133,7 +8137,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A195" s="4" t="s">
         <v>310</v>
       </c>
@@ -8168,7 +8172,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A196" s="4" t="s">
         <v>312</v>
       </c>
@@ -8203,7 +8207,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A197" s="4" t="s">
         <v>312</v>
       </c>
@@ -8238,7 +8242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A198" s="4" t="s">
         <v>314</v>
       </c>
@@ -8273,7 +8277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A199" s="4" t="s">
         <v>314</v>
       </c>
@@ -8308,7 +8312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A200" s="4" t="s">
         <v>316</v>
       </c>
@@ -8343,7 +8347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A201" s="4" t="s">
         <v>316</v>
       </c>
@@ -8378,7 +8382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A202" s="4" t="s">
         <v>318</v>
       </c>
@@ -8413,7 +8417,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A203" s="4" t="s">
         <v>318</v>
       </c>
@@ -8448,7 +8452,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A204" s="4" t="s">
         <v>318</v>
       </c>
@@ -8483,7 +8487,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A205" s="4" t="s">
         <v>320</v>
       </c>
@@ -8518,7 +8522,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A206" s="4" t="s">
         <v>320</v>
       </c>
@@ -8553,7 +8557,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A207" s="4" t="s">
         <v>320</v>
       </c>
@@ -8588,7 +8592,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A208" s="4" t="s">
         <v>322</v>
       </c>
@@ -8623,7 +8627,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A209" s="4" t="s">
         <v>322</v>
       </c>
@@ -8658,7 +8662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A210" s="4" t="s">
         <v>322</v>
       </c>
@@ -8693,7 +8697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A211" s="4" t="s">
         <v>324</v>
       </c>
@@ -8728,7 +8732,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A212" s="4" t="s">
         <v>324</v>
       </c>
@@ -8763,7 +8767,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A213" s="4" t="s">
         <v>324</v>
       </c>
@@ -8798,7 +8802,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A214" s="4" t="s">
         <v>326</v>
       </c>
@@ -8833,7 +8837,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A215" s="4" t="s">
         <v>326</v>
       </c>
@@ -8868,7 +8872,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A216" s="4" t="s">
         <v>326</v>
       </c>
@@ -8903,7 +8907,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A217" s="4" t="s">
         <v>328</v>
       </c>
@@ -8938,7 +8942,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A218" s="4" t="s">
         <v>328</v>
       </c>
@@ -8973,7 +8977,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A219" s="4" t="s">
         <v>328</v>
       </c>
@@ -9008,7 +9012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A220" s="4" t="s">
         <v>330</v>
       </c>
@@ -9043,7 +9047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A221" s="4" t="s">
         <v>330</v>
       </c>
@@ -9078,7 +9082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A222" s="4" t="s">
         <v>330</v>
       </c>
@@ -9113,7 +9117,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A223" s="4" t="s">
         <v>332</v>
       </c>
@@ -9148,7 +9152,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A224" s="4" t="s">
         <v>332</v>
       </c>
@@ -9183,7 +9187,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A225" s="4" t="s">
         <v>332</v>
       </c>
@@ -9218,7 +9222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A226" s="4" t="s">
         <v>334</v>
       </c>
@@ -9253,7 +9257,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A227" s="4" t="s">
         <v>334</v>
       </c>
@@ -9288,7 +9292,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A228" s="4" t="s">
         <v>334</v>
       </c>
@@ -9323,7 +9327,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A229" s="4" t="s">
         <v>336</v>
       </c>
@@ -9358,7 +9362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A230" s="4" t="s">
         <v>336</v>
       </c>
@@ -9393,7 +9397,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A231" s="4" t="s">
         <v>336</v>
       </c>
@@ -9428,7 +9432,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A232" s="4" t="s">
         <v>338</v>
       </c>
@@ -9463,7 +9467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A233" s="4" t="s">
         <v>338</v>
       </c>
@@ -9498,7 +9502,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A234" s="4" t="s">
         <v>338</v>
       </c>
@@ -9533,7 +9537,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A235" s="4" t="s">
         <v>340</v>
       </c>
@@ -9568,7 +9572,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A236" s="4" t="s">
         <v>340</v>
       </c>
@@ -9603,7 +9607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A237" s="4" t="s">
         <v>340</v>
       </c>
@@ -9638,7 +9642,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A238" s="4" t="s">
         <v>342</v>
       </c>
@@ -9673,7 +9677,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A239" s="4" t="s">
         <v>342</v>
       </c>
@@ -9708,7 +9712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A240" s="4" t="s">
         <v>342</v>
       </c>
@@ -9743,7 +9747,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A241" s="4" t="s">
         <v>344</v>
       </c>
@@ -9778,7 +9782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A242" s="4" t="s">
         <v>344</v>
       </c>
@@ -9813,7 +9817,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A243" s="4" t="s">
         <v>344</v>
       </c>
@@ -9848,7 +9852,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A244" s="4" t="s">
         <v>346</v>
       </c>
@@ -9883,7 +9887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A245" s="4" t="s">
         <v>346</v>
       </c>
@@ -9918,7 +9922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A246" s="4" t="s">
         <v>346</v>
       </c>
@@ -9953,7 +9957,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A247" s="4" t="s">
         <v>348</v>
       </c>
@@ -9988,7 +9992,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A248" s="4" t="s">
         <v>348</v>
       </c>
@@ -10023,7 +10027,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A249" s="4" t="s">
         <v>348</v>
       </c>
@@ -10058,7 +10062,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A250" s="4" t="s">
         <v>350</v>
       </c>
@@ -10093,7 +10097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A251" s="4" t="s">
         <v>350</v>
       </c>
@@ -10128,7 +10132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A252" s="4" t="s">
         <v>350</v>
       </c>
@@ -10163,7 +10167,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A253" s="4" t="s">
         <v>352</v>
       </c>
@@ -10198,7 +10202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A254" s="4" t="s">
         <v>352</v>
       </c>
@@ -10233,7 +10237,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A255" s="4" t="s">
         <v>352</v>
       </c>
